--- a/mul/mul_2d/clk/321/ipf說明.xlsx
+++ b/mul/mul_2d/clk/321/ipf說明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DeepLearning\mul\mul_2d\clk\321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A6F78-29E0-48AB-AD09-3DC9C5F749B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A502677D-20B4-48A8-BA8C-22314A6C284C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
   <si>
     <t>i_data</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>l3_dff4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>r_dff2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -415,6 +411,42 @@
   </si>
   <si>
     <t>顏色:同樣的顏色前面的會決定後面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_valid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cws_dff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cr_dff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cst_dff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cformat_dff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>locali</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -897,20 +929,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:U16"/>
+  <dimension ref="F5:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:20" x14ac:dyDescent="0.3">
       <c r="T5" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="6:21" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="6:20" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>35</v>
       </c>
@@ -923,11 +955,8 @@
       <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -941,19 +970,19 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
       </c>
       <c r="O7" t="s">
         <v>78</v>
@@ -967,17 +996,14 @@
       <c r="R7" t="s">
         <v>81</v>
       </c>
-      <c r="S7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -1002,11 +1028,8 @@
       <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>2</v>
       </c>
@@ -1031,22 +1054,13 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>3</v>
       </c>
@@ -1054,19 +1068,13 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>5</v>
       </c>
@@ -1074,159 +1082,693 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="6:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>93</v>
-      </c>
-      <c r="R14" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="6:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
         <v>68</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>71</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>73</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>74</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>75</v>
       </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
       <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>88</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>89</v>
       </c>
-      <c r="S15" t="s">
-        <v>90</v>
-      </c>
       <c r="T15" t="s">
-        <v>91</v>
-      </c>
-      <c r="U15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="6:21" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="6:20" x14ac:dyDescent="0.3">
       <c r="N16" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" t="s">
+        <v>93</v>
+      </c>
+      <c r="S28" t="s">
+        <v>94</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>87</v>
+      </c>
+      <c r="R29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" t="s">
+        <v>90</v>
+      </c>
+      <c r="U29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>79</v>
+      </c>
+      <c r="R33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s">
+        <v>81</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>92</v>
+      </c>
+      <c r="R40" t="s">
+        <v>93</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>87</v>
+      </c>
+      <c r="R41" t="s">
+        <v>88</v>
+      </c>
+      <c r="S41" t="s">
+        <v>89</v>
+      </c>
+      <c r="T41" t="s">
+        <v>90</v>
+      </c>
+      <c r="U41" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
